--- a/Ej1/Mediciones/labo_tp5_ej1_mediciones.xlsx
+++ b/Ej1/Mediciones/labo_tp5_ej1_mediciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rochi\Google Drive\Materias\Laboratorio de electrónica\TPs\Labo-de-Electro-tp5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rochi\Google Drive\Materias\Laboratorio de electrónica\TPs\Labo-de-Electro-tp5\Ej1\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Agilent</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>menos 10</t>
   </si>
 </sst>
 </file>
@@ -403,20 +400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -427,27 +424,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.7</v>
       </c>
@@ -455,33 +449,25 @@
         <v>-14</v>
       </c>
       <c r="C4">
-        <f>B4-10</f>
-        <v>-24</v>
+        <f>10^(B4/10-3)</f>
+        <v>3.9810717055349634E-5</v>
       </c>
       <c r="D4">
-        <f>10^(B4/10)</f>
-        <v>3.9810717055349727E-2</v>
+        <v>-14.4</v>
       </c>
       <c r="E4">
-        <f>10^(C4/10)</f>
-        <v>3.9810717055349717E-3</v>
-      </c>
-      <c r="H4">
-        <v>-14.4</v>
-      </c>
-      <c r="I4">
-        <f>10^(H4/10)</f>
+        <f>10^(D4/10)</f>
         <v>3.6307805477010131E-2</v>
       </c>
-      <c r="J4">
+      <c r="F4">
         <v>-1.8</v>
       </c>
-      <c r="K4">
-        <f>10^(J4/10)</f>
+      <c r="G4">
+        <f>10^(F4/10)</f>
         <v>0.660693448007596</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.4</v>
       </c>
@@ -489,221 +475,209 @@
         <v>-66</v>
       </c>
       <c r="C5">
-        <f>B5-10</f>
-        <v>-76</v>
+        <f>10^(B5/10-3)</f>
+        <v>2.5118864315095784E-10</v>
       </c>
       <c r="D5">
-        <f>10^(B5/10)</f>
-        <v>2.511886431509578E-7</v>
+        <v>-50.4</v>
       </c>
       <c r="E5">
-        <f>10^(C5/10)</f>
-        <v>2.5118864315095751E-8</v>
-      </c>
-      <c r="H5">
-        <v>-50.4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I14" si="0">10^(H5/10)</f>
+        <f t="shared" ref="E5:E14" si="0">10^(D5/10)</f>
         <v>9.1201083935590828E-6</v>
       </c>
-      <c r="J5">
+      <c r="F5">
         <v>-39.6</v>
       </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K14" si="1">10^(J5/10)</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G14" si="1">10^(F5/10)</f>
         <v>1.0964781961431837E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H6">
+      <c r="D6">
         <v>-42.8</v>
       </c>
-      <c r="I6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>5.248074602497726E-5</v>
       </c>
-      <c r="J6">
+      <c r="F6">
         <v>-29</v>
       </c>
-      <c r="K6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>1.2589254117941662E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.8</v>
       </c>
-      <c r="H7">
+      <c r="B7">
+        <f>B4-B5</f>
+        <v>52</v>
+      </c>
+      <c r="D7">
         <v>-64.400000000000006</v>
       </c>
-      <c r="I7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>3.6307805477010047E-7</v>
       </c>
-      <c r="J7">
+      <c r="F7">
         <v>-48.2</v>
       </c>
-      <c r="K7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>1.5135612484362051E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.5</v>
       </c>
-      <c r="H8">
+      <c r="D8">
         <v>-62.4</v>
       </c>
-      <c r="I8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>5.7543993733715549E-7</v>
       </c>
-      <c r="J8">
+      <c r="F8">
         <v>-44.6</v>
       </c>
-      <c r="K8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>3.4673685045253161E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.199999999999999</v>
       </c>
-      <c r="H9">
+      <c r="D9">
         <v>-76.400000000000006</v>
       </c>
-      <c r="I9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>2.2908676527677693E-8</v>
       </c>
-      <c r="J9">
+      <c r="F9">
         <v>-64</v>
       </c>
-      <c r="K9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>3.9810717055349618E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11.9</v>
       </c>
-      <c r="H10">
+      <c r="D10">
         <v>-66</v>
       </c>
-      <c r="I10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>2.511886431509578E-7</v>
       </c>
-      <c r="J10">
+      <c r="F10">
         <v>-62</v>
       </c>
-      <c r="K10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>6.3095734448019254E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13.6</v>
       </c>
-      <c r="H11">
+      <c r="D11">
         <v>-77</v>
       </c>
-      <c r="I11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>1.9952623149688773E-8</v>
       </c>
-      <c r="K11">
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.3</v>
       </c>
-      <c r="H12">
+      <c r="D12">
         <v>-66.599999999999994</v>
       </c>
-      <c r="I12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>2.1877616239495519E-7</v>
       </c>
-      <c r="J12">
+      <c r="F12">
         <v>-65.2</v>
       </c>
-      <c r="K12">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>3.0199517204020112E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
-      <c r="H13">
+      <c r="D13">
         <v>-77</v>
       </c>
-      <c r="I13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>1.9952623149688773E-8</v>
       </c>
-      <c r="J13">
+      <c r="F13">
         <v>-66.599999999999994</v>
       </c>
-      <c r="K13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>2.1877616239495519E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.7</v>
       </c>
-      <c r="H14">
+      <c r="D14">
         <v>-69</v>
       </c>
-      <c r="I14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>1.2589254117941651E-7</v>
       </c>
-      <c r="J14">
+      <c r="F14">
         <v>-61.6</v>
       </c>
-      <c r="K14">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>6.9183097091893534E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="e">
-        <f>SQRT(SUM(C5:C14)/D4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D16">
-        <f>SUM(D5:D14)/D4</f>
-        <v>6.3095734448019271E-6</v>
+      <c r="C16">
+        <f>SUM(C5:C14)/C4*100</f>
+        <v>6.3095734448019429E-4</v>
       </c>
       <c r="E16">
         <f>SUM(E5:E14)/E4*100</f>
-        <v>6.3095734448019212E-4</v>
-      </c>
-      <c r="I16">
-        <f>SUM(I5:I14)/I4*100</f>
         <v>0.17406186589881498</v>
       </c>
-      <c r="K16">
-        <f>SUM(K5:K14)/K4*100</f>
+      <c r="G16">
+        <f>SUM(G5:G14)/G4*100</f>
         <v>0.21502017312909003</v>
       </c>
     </row>
